--- a/visuals/info_table.xlsx
+++ b/visuals/info_table.xlsx
@@ -1099,349 +1099,349 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
         <v>118</v>
@@ -1449,379 +1449,393 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B57" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
         <v>211</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>212</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>213</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>141</v>
       </c>
     </row>

--- a/visuals/info_table.xlsx
+++ b/visuals/info_table.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">2020 Population</t>
   </si>
   <si>
-    <t xml:space="preserve">Dec 2022 SNAP recipients</t>
+    <t xml:space="preserve">Mar 2023 SNAP recipients</t>
   </si>
   <si>
     <t xml:space="preserve">District SNAP recipients as % of population</t>
@@ -32,76 +32,79 @@
     <t xml:space="preserve">100,929</t>
   </si>
   <si>
-    <t xml:space="preserve">46,445</t>
+    <t xml:space="preserve">45,890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54,454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93,755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150,436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58,346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132,584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56,148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89,216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,142</t>
   </si>
   <si>
     <t xml:space="preserve">46%</t>
   </si>
   <si>
-    <t xml:space="preserve">B02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54,454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93,755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150,436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58,250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132,584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56,013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89,216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,128</t>
-  </si>
-  <si>
     <t xml:space="preserve">B07</t>
   </si>
   <si>
     <t xml:space="preserve">146,813</t>
   </si>
   <si>
-    <t xml:space="preserve">49,917</t>
+    <t xml:space="preserve">49,878</t>
   </si>
   <si>
     <t xml:space="preserve">34%</t>
@@ -113,7 +116,7 @@
     <t xml:space="preserve">106,924</t>
   </si>
   <si>
-    <t xml:space="preserve">19,124</t>
+    <t xml:space="preserve">19,428</t>
   </si>
   <si>
     <t xml:space="preserve">18%</t>
@@ -125,7 +128,7 @@
     <t xml:space="preserve">188,249</t>
   </si>
   <si>
-    <t xml:space="preserve">57,760</t>
+    <t xml:space="preserve">57,943</t>
   </si>
   <si>
     <t xml:space="preserve">31%</t>
@@ -137,505 +140,502 @@
     <t xml:space="preserve">130,763</t>
   </si>
   <si>
-    <t xml:space="preserve">21,290</t>
+    <t xml:space="preserve">22,001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119,666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163,489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204,125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52,340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130,021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120,747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200,293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113,933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133,230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108,259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136,071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198,870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205,377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108,905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164,568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169,632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98,506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162,446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204,095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,006</t>
   </si>
   <si>
     <t xml:space="preserve">16%</t>
   </si>
   <si>
-    <t xml:space="preserve">B11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119,666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163,489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204,125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51,822</t>
+    <t xml:space="preserve">M01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78,390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92,445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163,141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131,351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155,614</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222,129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231,983</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110,458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130,440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125,771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180,206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48,765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196,803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137,981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179,134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181,025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178,178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120,955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269,587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161,402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152,839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129,411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122,211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256,278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51,570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199,218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124,173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,383</t>
   </si>
   <si>
     <t xml:space="preserve">25%</t>
   </si>
   <si>
-    <t xml:space="preserve">K02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130,021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174,960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45,079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120,747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200,293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66,755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113,933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133,230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108,259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136,071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198,870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205,377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65,401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108,905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164,568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169,632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 98,506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162,446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204,095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78,390</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92,445</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163,141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131,351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 63,600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155,614</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222,129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231,983</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110,458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130,440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125,771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43,752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180,206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48,657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196,803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137,981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179,134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181,025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178,178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120,955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">269,587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161,402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152,839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129,411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122,211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256,278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48,453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199,218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124,173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,351</t>
-  </si>
-  <si>
     <t xml:space="preserve">S01</t>
   </si>
   <si>
     <t xml:space="preserve">189,663</t>
   </si>
   <si>
-    <t xml:space="preserve">39,923</t>
+    <t xml:space="preserve">41,073</t>
   </si>
   <si>
     <t xml:space="preserve">S02</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">140,795</t>
   </si>
   <si>
-    <t xml:space="preserve">17,783</t>
+    <t xml:space="preserve">19,012</t>
   </si>
   <si>
     <t xml:space="preserve">S03</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">164,723</t>
   </si>
   <si>
-    <t xml:space="preserve">13,059</t>
+    <t xml:space="preserve">13,984</t>
   </si>
 </sst>
 </file>
@@ -1080,763 +1080,749 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
         <v>135</v>
-      </c>
-      <c r="C38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" t="s">
         <v>182</v>
-      </c>
-      <c r="D51" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>211</v>
-      </c>
-      <c r="B61" t="s">
-        <v>212</v>
-      </c>
-      <c r="C61" t="s">
-        <v>213</v>
-      </c>
-      <c r="D61" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/visuals/info_table.xlsx
+++ b/visuals/info_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t xml:space="preserve">Community District</t>
   </si>
@@ -32,10 +32,10 @@
     <t xml:space="preserve">100,929</t>
   </si>
   <si>
-    <t xml:space="preserve">45,890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45%</t>
+    <t xml:space="preserve">46,452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46%</t>
   </si>
   <si>
     <t xml:space="preserve">B02</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve"> 54,454</t>
   </si>
   <si>
-    <t xml:space="preserve">23,387</t>
+    <t xml:space="preserve">23,596</t>
   </si>
   <si>
     <t xml:space="preserve">43%</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve"> 93,755</t>
   </si>
   <si>
-    <t xml:space="preserve">44,362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47%</t>
+    <t xml:space="preserve">44,591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48%</t>
   </si>
   <si>
     <t xml:space="preserve">B04</t>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">150,436</t>
   </si>
   <si>
-    <t xml:space="preserve">58,346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39%</t>
+    <t xml:space="preserve">59,454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40%</t>
   </si>
   <si>
     <t xml:space="preserve">B05</t>
@@ -80,10 +80,7 @@
     <t xml:space="preserve">132,584</t>
   </si>
   <si>
-    <t xml:space="preserve">56,148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42%</t>
+    <t xml:space="preserve">57,057</t>
   </si>
   <si>
     <t xml:space="preserve">B06</t>
@@ -92,10 +89,7 @@
     <t xml:space="preserve"> 89,216</t>
   </si>
   <si>
-    <t xml:space="preserve">41,142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46%</t>
+    <t xml:space="preserve">40,871</t>
   </si>
   <si>
     <t xml:space="preserve">B07</t>
@@ -104,421 +98,421 @@
     <t xml:space="preserve">146,813</t>
   </si>
   <si>
-    <t xml:space="preserve">49,878</t>
+    <t xml:space="preserve">50,675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106,924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188,249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130,763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119,666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163,489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204,125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52,989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130,021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174,960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120,747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200,293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67,860</t>
   </si>
   <si>
     <t xml:space="preserve">34%</t>
   </si>
   <si>
-    <t xml:space="preserve">B08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106,924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188,249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57,943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130,763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119,666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,027</t>
+    <t xml:space="preserve">K06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113,933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133,230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108,259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136,071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198,870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205,377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70,678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108,905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164,568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169,632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98,506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162,446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204,095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78,390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92,445</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163,141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,735</t>
   </si>
   <si>
     <t xml:space="preserve">23%</t>
   </si>
   <si>
-    <t xml:space="preserve">B12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163,489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43,779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204,125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52,340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130,021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174,960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45,127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120,747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200,293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66,821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113,933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133,230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108,259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136,071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198,870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205,377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69,110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108,905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164,568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169,632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 98,506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162,446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34,771</t>
+    <t xml:space="preserve">M04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131,351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155,614</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222,129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231,983</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110,458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,937</t>
   </si>
   <si>
     <t xml:space="preserve">21%</t>
   </si>
   <si>
-    <t xml:space="preserve">K18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204,095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78,390</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92,445</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163,141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131,351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,670</t>
+    <t xml:space="preserve">M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130,440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125,771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180,206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196,803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137,981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,122</t>
   </si>
   <si>
     <t xml:space="preserve">10%</t>
   </si>
   <si>
-    <t xml:space="preserve">M05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 63,600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155,614</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222,129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231,983</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110,458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130,440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125,771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43,198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180,206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48,765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196,803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137,981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,757</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q03</t>
   </si>
   <si>
     <t xml:space="preserve">179,134</t>
   </si>
   <si>
-    <t xml:space="preserve">26,259</t>
+    <t xml:space="preserve">26,968</t>
   </si>
   <si>
     <t xml:space="preserve">Q04</t>
@@ -527,7 +521,7 @@
     <t xml:space="preserve">181,025</t>
   </si>
   <si>
-    <t xml:space="preserve">29,190</t>
+    <t xml:space="preserve">29,837</t>
   </si>
   <si>
     <t xml:space="preserve">Q05</t>
@@ -536,7 +530,7 @@
     <t xml:space="preserve">178,178</t>
   </si>
   <si>
-    <t xml:space="preserve">21,395</t>
+    <t xml:space="preserve">21,785</t>
   </si>
   <si>
     <t xml:space="preserve">12%</t>
@@ -548,7 +542,7 @@
     <t xml:space="preserve">120,955</t>
   </si>
   <si>
-    <t xml:space="preserve">13,284</t>
+    <t xml:space="preserve">13,872</t>
   </si>
   <si>
     <t xml:space="preserve">Q07</t>
@@ -557,10 +551,7 @@
     <t xml:space="preserve">269,587</t>
   </si>
   <si>
-    <t xml:space="preserve">36,907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14%</t>
+    <t xml:space="preserve">38,498</t>
   </si>
   <si>
     <t xml:space="preserve">Q08</t>
@@ -569,7 +560,7 @@
     <t xml:space="preserve">161,402</t>
   </si>
   <si>
-    <t xml:space="preserve">22,319</t>
+    <t xml:space="preserve">23,193</t>
   </si>
   <si>
     <t xml:space="preserve">Q09</t>
@@ -578,7 +569,7 @@
     <t xml:space="preserve">152,839</t>
   </si>
   <si>
-    <t xml:space="preserve">26,072</t>
+    <t xml:space="preserve">26,803</t>
   </si>
   <si>
     <t xml:space="preserve">Q10</t>
@@ -587,7 +578,7 @@
     <t xml:space="preserve">129,411</t>
   </si>
   <si>
-    <t xml:space="preserve">19,048</t>
+    <t xml:space="preserve">19,510</t>
   </si>
   <si>
     <t xml:space="preserve">Q11</t>
@@ -596,7 +587,7 @@
     <t xml:space="preserve">122,211</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9,973</t>
+    <t xml:space="preserve">10,428</t>
   </si>
   <si>
     <t xml:space="preserve">Q12</t>
@@ -605,7 +596,7 @@
     <t xml:space="preserve">256,278</t>
   </si>
   <si>
-    <t xml:space="preserve">51,570</t>
+    <t xml:space="preserve">53,946</t>
   </si>
   <si>
     <t xml:space="preserve">Q13</t>
@@ -614,7 +605,7 @@
     <t xml:space="preserve">199,218</t>
   </si>
   <si>
-    <t xml:space="preserve">23,788</t>
+    <t xml:space="preserve">24,371</t>
   </si>
   <si>
     <t xml:space="preserve">Q14</t>
@@ -623,10 +614,7 @@
     <t xml:space="preserve">124,173</t>
   </si>
   <si>
-    <t xml:space="preserve">31,383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25%</t>
+    <t xml:space="preserve">32,016</t>
   </si>
   <si>
     <t xml:space="preserve">S01</t>
@@ -635,7 +623,7 @@
     <t xml:space="preserve">189,663</t>
   </si>
   <si>
-    <t xml:space="preserve">41,073</t>
+    <t xml:space="preserve">41,802</t>
   </si>
   <si>
     <t xml:space="preserve">S02</t>
@@ -644,7 +632,7 @@
     <t xml:space="preserve">140,795</t>
   </si>
   <si>
-    <t xml:space="preserve">19,012</t>
+    <t xml:space="preserve">19,496</t>
   </si>
   <si>
     <t xml:space="preserve">S03</t>
@@ -653,7 +641,7 @@
     <t xml:space="preserve">164,723</t>
   </si>
   <si>
-    <t xml:space="preserve">13,984</t>
+    <t xml:space="preserve">14,362</t>
   </si>
 </sst>
 </file>
@@ -1066,763 +1054,763 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
         <v>81</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
         <v>85</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>87</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
         <v>92</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
         <v>95</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>96</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>97</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
         <v>99</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>100</v>
       </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>103</v>
       </c>
-      <c r="C28" t="s">
-        <v>104</v>
-      </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
         <v>106</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>107</v>
-      </c>
-      <c r="C29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
         <v>110</v>
       </c>
-      <c r="B30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
         <v>114</v>
-      </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
         <v>118</v>
-      </c>
-      <c r="B32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
         <v>125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
         <v>128</v>
       </c>
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" t="s">
         <v>146</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" t="s">
         <v>149</v>
       </c>
-      <c r="B41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" t="s">
-        <v>151</v>
-      </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
         <v>159</v>
-      </c>
-      <c r="B44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
         <v>163</v>
-      </c>
-      <c r="B45" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
         <v>166</v>
       </c>
-      <c r="B46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" t="s">
-        <v>168</v>
-      </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" t="s">
         <v>169</v>
       </c>
-      <c r="B47" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" t="s">
-        <v>171</v>
-      </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" t="s">
         <v>172</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>173</v>
-      </c>
-      <c r="C48" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
         <v>176</v>
       </c>
-      <c r="B49" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" t="s">
-        <v>178</v>
-      </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" t="s">
         <v>179</v>
       </c>
-      <c r="B50" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" t="s">
-        <v>181</v>
-      </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C60" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
